--- a/database/industries/kashi/kesave/product/yearly_seprated.xlsx
+++ b/database/industries/kashi/kesave/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kesave\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kesave\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF8088F-6EDE-4FC1-8690-CA02DB65DE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5527DCAD-3EFB-4747-A209-F99DE76A1E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -655,12 +655,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -670,7 +670,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -682,7 +682,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -694,7 +694,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -704,7 +704,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -716,7 +716,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -728,7 +728,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -738,7 +738,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -760,7 +760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -770,7 +770,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -782,7 +782,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -806,7 +806,7 @@
         <v>1699994</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
@@ -830,7 +830,7 @@
         <v>1297709</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
@@ -854,7 +854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>17</v>
       </c>
@@ -878,7 +878,7 @@
         <v>1888410</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>18</v>
       </c>
@@ -900,7 +900,7 @@
         <v>4886113</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
@@ -912,7 +912,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>11</v>
       </c>
@@ -936,7 +936,7 @@
         <v>4318164</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>14</v>
       </c>
@@ -960,7 +960,7 @@
         <v>1059364</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>16</v>
       </c>
@@ -984,7 +984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>17</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>1251485</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>20</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>6629013</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>21</v>
       </c>
@@ -1042,7 +1042,7 @@
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>22</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
         <v>23</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>25</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="18" t="s">
         <v>26</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>11515126</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1142,7 +1142,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1152,7 +1152,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1162,7 +1162,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>27</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1194,7 +1194,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>28</v>
       </c>
@@ -1206,7 +1206,7 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>11</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>1617681</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>14</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>268575</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>16</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>17</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>2278587</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>18</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>4164843</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>30</v>
       </c>
@@ -1336,7 +1336,7 @@
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>11</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>3467678</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>14</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>158648</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>16</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>17</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>1186516</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>20</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>4812842</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="16" t="s">
         <v>31</v>
       </c>
@@ -1466,7 +1466,7 @@
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>22</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="18" t="s">
         <v>23</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>25</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>-713544</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="18" t="s">
         <v>26</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>8264141</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1568,7 +1568,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1578,7 +1578,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1588,7 +1588,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>32</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1620,7 +1620,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>33</v>
       </c>
@@ -1632,7 +1632,7 @@
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>11</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>951580</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>14</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>206961</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>17</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>1206617</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>36</v>
       </c>
@@ -1740,7 +1740,7 @@
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>11</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>803045</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="12" t="s">
         <v>14</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>149758</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>16</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="12" t="s">
         <v>17</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>948086</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1846,7 +1846,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1856,7 +1856,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1866,7 +1866,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>37</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1898,7 +1898,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>38</v>
       </c>
@@ -1910,7 +1910,7 @@
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>11</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>-903990</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="12" t="s">
         <v>14</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>-212346</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>16</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="12" t="s">
         <v>17</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>-1357616</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="14" t="s">
         <v>39</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>-2473952</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>40</v>
       </c>
@@ -2040,7 +2040,7 @@
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>11</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>-2377451</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>14</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>-150170</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>16</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>17</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>-812865</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="14" t="s">
         <v>41</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>-3340486</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="16" t="s">
         <v>42</v>
       </c>
@@ -2170,7 +2170,7 @@
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="14" t="s">
         <v>43</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="18" t="s">
         <v>23</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="14" t="s">
         <v>25</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="18" t="s">
         <v>26</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>-5814438</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2272,7 +2272,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2282,7 +2282,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2292,7 +2292,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
         <v>44</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2324,7 +2324,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>45</v>
       </c>
@@ -2336,7 +2336,7 @@
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>11</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>713691</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="12" t="s">
         <v>14</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>56229</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>16</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="12" t="s">
         <v>17</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>920971</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="14" t="s">
         <v>46</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>1690891</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>47</v>
       </c>
@@ -2466,7 +2466,7 @@
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>11</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>1090227</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="12" t="s">
         <v>14</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>8478</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>16</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
         <v>17</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>373651</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="14" t="s">
         <v>48</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>1472356</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="16" t="s">
         <v>49</v>
       </c>
@@ -2596,7 +2596,7 @@
       <c r="H103" s="17"/>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="14" t="s">
         <v>50</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="18" t="s">
         <v>26</v>
       </c>
